--- a/nextversion/matrices.xlsx
+++ b/nextversion/matrices.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E75413F-6A12-4AB1-879A-C1BD1F99942E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F73A6F-665D-4481-84B0-138D081C20FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1327" yWindow="793" windowWidth="24273" windowHeight="13007" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>Skirmisher</t>
   </si>
@@ -238,13 +238,76 @@
   </si>
   <si>
     <t>M-R</t>
+  </si>
+  <si>
+    <t>Devil</t>
+  </si>
+  <si>
+    <t>RS1</t>
+  </si>
+  <si>
+    <t>RW2</t>
+  </si>
+  <si>
+    <t>CW3</t>
+  </si>
+  <si>
+    <t>Imp</t>
+  </si>
+  <si>
+    <t>PR1</t>
+  </si>
+  <si>
+    <t>CS3</t>
+  </si>
+  <si>
+    <t>CP2</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>MR2</t>
+  </si>
+  <si>
+    <t>PW3</t>
+  </si>
+  <si>
+    <t>Mad Doctor</t>
+  </si>
+  <si>
+    <t>MW1</t>
+  </si>
+  <si>
+    <t>RW3</t>
+  </si>
+  <si>
+    <t>PW2</t>
+  </si>
+  <si>
+    <t>Bulwark</t>
+  </si>
+  <si>
+    <t>ST4</t>
+  </si>
+  <si>
+    <t>PT1</t>
+  </si>
+  <si>
+    <t>Hammer</t>
+  </si>
+  <si>
+    <t>PT2</t>
+  </si>
+  <si>
+    <t>PS2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +352,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -310,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -321,10 +391,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -611,7 +689,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -695,23 +773,23 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H2">
@@ -768,23 +846,23 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="8" t="s">
         <v>26</v>
       </c>
       <c r="H3">
@@ -841,23 +919,23 @@
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H4">
@@ -914,23 +992,23 @@
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="10" t="s">
         <v>33</v>
       </c>
       <c r="H5">
@@ -987,24 +1065,36 @@
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="H6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K6">
         <f t="shared" si="3"/>
@@ -1012,48 +1102,72 @@
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>PR2RS1RW2RS2CW3</v>
       </c>
       <c r="Q6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ref="R6:R11" si="13">RIGHT(D6)-RIGHT(F6)</f>
+        <v>-1</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ref="S6:S11" si="14">RIGHT(C6)-RIGHT(E6)</f>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" ref="T6:T11" si="15">RIGHT(C6)+RIGHT(E6)-RIGHT(D6)-RIGHT(F6)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="H7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7">
         <f t="shared" si="3"/>
@@ -1065,44 +1179,68 @@
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>CP1RS3PR1CS3CP2</v>
       </c>
       <c r="Q7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="15"/>
+        <v>-4</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K8">
         <f t="shared" si="3"/>
@@ -1110,7 +1248,7 @@
       </c>
       <c r="L8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <f t="shared" si="5"/>
@@ -1118,40 +1256,64 @@
       </c>
       <c r="N8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O8">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>MR2RS1PR2PR2PW3</v>
       </c>
       <c r="Q8">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="B9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="H9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="3"/>
@@ -1159,7 +1321,7 @@
       </c>
       <c r="L9" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="5"/>
@@ -1167,44 +1329,68 @@
       </c>
       <c r="N9" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P9" s="2" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>MW1RW2RW3RS2PW2</v>
       </c>
       <c r="Q9">
         <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="14"/>
+        <v>-2</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="B10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="H10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="4"/>
@@ -1216,44 +1402,68 @@
       </c>
       <c r="N10" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P10" s="2" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>MS3ST4MS1RS1PT1</v>
       </c>
       <c r="Q10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="15"/>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="B11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="H11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="4"/>
@@ -1265,19 +1475,31 @@
       </c>
       <c r="N11" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P11" s="2" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>MP4PT2PS2RT0PT2</v>
       </c>
       <c r="Q11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="15"/>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.5">
@@ -2367,43 +2589,43 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34">
-        <f t="shared" ref="H34:H65" si="13">LEN($P34)-LEN(SUBSTITUTE($P34,"M",""))</f>
+        <f t="shared" ref="H34:H65" si="16">LEN($P34)-LEN(SUBSTITUTE($P34,"M",""))</f>
         <v>0</v>
       </c>
       <c r="I34">
-        <f t="shared" ref="I34:I65" si="14">LEN($P34)-LEN(SUBSTITUTE($P34,"S",""))</f>
+        <f t="shared" ref="I34:I65" si="17">LEN($P34)-LEN(SUBSTITUTE($P34,"S",""))</f>
         <v>0</v>
       </c>
       <c r="J34">
-        <f t="shared" ref="J34:J65" si="15">LEN($P34)-LEN(SUBSTITUTE($P34,"R",""))</f>
+        <f t="shared" ref="J34:J65" si="18">LEN($P34)-LEN(SUBSTITUTE($P34,"R",""))</f>
         <v>0</v>
       </c>
       <c r="K34">
-        <f t="shared" ref="K34:K65" si="16">LEN($P34)-LEN(SUBSTITUTE($P34,"T",""))</f>
+        <f t="shared" ref="K34:K65" si="19">LEN($P34)-LEN(SUBSTITUTE($P34,"T",""))</f>
         <v>0</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34:L65" si="17">LEN($P34)-LEN(SUBSTITUTE($P34,"W",""))</f>
+        <f t="shared" ref="L34:L65" si="20">LEN($P34)-LEN(SUBSTITUTE($P34,"W",""))</f>
         <v>0</v>
       </c>
       <c r="M34">
-        <f t="shared" ref="M34:M65" si="18">LEN($P34)-LEN(SUBSTITUTE($P34,"C",""))</f>
+        <f t="shared" ref="M34:M65" si="21">LEN($P34)-LEN(SUBSTITUTE($P34,"C",""))</f>
         <v>0</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:N65" si="19">LEN($P34)-LEN(SUBSTITUTE($P34,"P",""))</f>
+        <f t="shared" ref="N34:N65" si="22">LEN($P34)-LEN(SUBSTITUTE($P34,"P",""))</f>
         <v>0</v>
       </c>
       <c r="O34">
-        <f t="shared" ref="O34:O65" si="20">COUNTIF(H34:N34, "&gt;0" )</f>
+        <f t="shared" ref="O34:O65" si="23">COUNTIF(H34:N34, "&gt;0" )</f>
         <v>0</v>
       </c>
       <c r="P34" t="str">
-        <f t="shared" ref="P34:P65" si="21">_xlfn.CONCAT(C34:G34)</f>
+        <f t="shared" ref="P34:P65" si="24">_xlfn.CONCAT(C34:G34)</f>
         <v/>
       </c>
       <c r="Q34">
-        <f t="shared" ref="Q34:Q65" si="22">MAX(H34:N34)</f>
+        <f t="shared" ref="Q34:Q65" si="25">MAX(H34:N34)</f>
         <v>0</v>
       </c>
     </row>
@@ -2416,43 +2638,43 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N35">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P35" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -2465,43 +2687,43 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P36" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -2514,43 +2736,43 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P37" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -2563,43 +2785,43 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N38">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O38">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P38" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -2612,43 +2834,43 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P39" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -2661,43 +2883,43 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P40" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -2710,43 +2932,43 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N41">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P41" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q41">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -2759,43 +2981,43 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P42" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -2808,43 +3030,43 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K43">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P43" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -2857,43 +3079,43 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O44">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -2906,43 +3128,43 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I45" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J45" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K45" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L45" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M45" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N45" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O45" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P45" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q45" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -2955,43 +3177,43 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P46" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -3004,43 +3226,43 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K47">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L47">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O47">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P47" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -3053,43 +3275,43 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P48" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q48">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -3102,43 +3324,43 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O49">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P49" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q49">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -3151,43 +3373,43 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O50">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P50" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q50">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -3200,43 +3422,43 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P51" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q51">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -3249,43 +3471,43 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P52" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -3298,43 +3520,43 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P53" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -3347,43 +3569,43 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P54" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q54">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -3396,43 +3618,43 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M55">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N55">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O55">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P55" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q55">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -3445,43 +3667,43 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K56">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M56">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O56">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P56" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q56">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -3494,43 +3716,43 @@
       <c r="F57" s="4"/>
       <c r="G57" s="3"/>
       <c r="H57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P57" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q57">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -3543,43 +3765,43 @@
       <c r="F58" s="4"/>
       <c r="G58" s="3"/>
       <c r="H58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M58">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P58" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -3592,43 +3814,43 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J59">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L59">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P59" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -3641,43 +3863,43 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P60" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -3690,43 +3912,43 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I61">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K61">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L61">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M61">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P61" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -3739,43 +3961,43 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I62">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J62">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K62">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L62">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N62">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P62" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q62">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -3788,43 +4010,43 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I63">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J63">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L63">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M63">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N63">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O63">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P63" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q63">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -3837,43 +4059,43 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L64">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M64">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N64">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P64" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q64">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -3886,43 +4108,43 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L65">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N65">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P65" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -3935,43 +4157,43 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66">
-        <f t="shared" ref="H66:H79" si="23">LEN($P66)-LEN(SUBSTITUTE($P66,"M",""))</f>
+        <f t="shared" ref="H66:H79" si="26">LEN($P66)-LEN(SUBSTITUTE($P66,"M",""))</f>
         <v>0</v>
       </c>
       <c r="I66">
-        <f t="shared" ref="I66:I79" si="24">LEN($P66)-LEN(SUBSTITUTE($P66,"S",""))</f>
+        <f t="shared" ref="I66:I79" si="27">LEN($P66)-LEN(SUBSTITUTE($P66,"S",""))</f>
         <v>0</v>
       </c>
       <c r="J66">
-        <f t="shared" ref="J66:J79" si="25">LEN($P66)-LEN(SUBSTITUTE($P66,"R",""))</f>
+        <f t="shared" ref="J66:J79" si="28">LEN($P66)-LEN(SUBSTITUTE($P66,"R",""))</f>
         <v>0</v>
       </c>
       <c r="K66">
-        <f t="shared" ref="K66:K79" si="26">LEN($P66)-LEN(SUBSTITUTE($P66,"T",""))</f>
+        <f t="shared" ref="K66:K79" si="29">LEN($P66)-LEN(SUBSTITUTE($P66,"T",""))</f>
         <v>0</v>
       </c>
       <c r="L66">
-        <f t="shared" ref="L66:L79" si="27">LEN($P66)-LEN(SUBSTITUTE($P66,"W",""))</f>
+        <f t="shared" ref="L66:L79" si="30">LEN($P66)-LEN(SUBSTITUTE($P66,"W",""))</f>
         <v>0</v>
       </c>
       <c r="M66">
-        <f t="shared" ref="M66:M79" si="28">LEN($P66)-LEN(SUBSTITUTE($P66,"C",""))</f>
+        <f t="shared" ref="M66:M79" si="31">LEN($P66)-LEN(SUBSTITUTE($P66,"C",""))</f>
         <v>0</v>
       </c>
       <c r="N66">
-        <f t="shared" ref="N66:N79" si="29">LEN($P66)-LEN(SUBSTITUTE($P66,"P",""))</f>
+        <f t="shared" ref="N66:N79" si="32">LEN($P66)-LEN(SUBSTITUTE($P66,"P",""))</f>
         <v>0</v>
       </c>
       <c r="O66">
-        <f t="shared" ref="O66:O79" si="30">COUNTIF(H66:N66, "&gt;0" )</f>
+        <f t="shared" ref="O66:O79" si="33">COUNTIF(H66:N66, "&gt;0" )</f>
         <v>0</v>
       </c>
       <c r="P66" t="str">
-        <f t="shared" ref="P66:P79" si="31">_xlfn.CONCAT(C66:G66)</f>
+        <f t="shared" ref="P66:P79" si="34">_xlfn.CONCAT(C66:G66)</f>
         <v/>
       </c>
       <c r="Q66">
-        <f t="shared" ref="Q66:Q79" si="32">MAX(H66:N66)</f>
+        <f t="shared" ref="Q66:Q79" si="35">MAX(H66:N66)</f>
         <v>0</v>
       </c>
     </row>
@@ -3984,43 +4206,43 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I67">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J67">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K67">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L67">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M67">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N67">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O67">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="Q67">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -4033,43 +4255,43 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="P68" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="Q68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -4082,43 +4304,43 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I69">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J69">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K69">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L69">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M69">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N69">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O69">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="P69" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="Q69">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -4131,43 +4353,43 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I70">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J70">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K70">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M70">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O70">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="P70" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="Q70">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -4180,43 +4402,43 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I71">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J71">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K71">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L71">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M71">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O71">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="P71" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="Q71">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -4229,43 +4451,43 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I72">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J72">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K72">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L72">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M72">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="P72" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="Q72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -4278,43 +4500,43 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I73" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J73" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K73" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L73" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M73" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N73" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O73" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="P73" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="Q73" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -4327,43 +4549,43 @@
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I74" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J74" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K74" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L74" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M74" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N74" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O74" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="P74" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="Q74" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -4376,43 +4598,43 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I75" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J75" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K75" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L75" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M75" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N75" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O75" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="P75" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="Q75" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -4425,43 +4647,43 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I76">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J76">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K76">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L76">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M76">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O76">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="P76" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="Q76">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -4474,43 +4696,43 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I77">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J77">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K77">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L77">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M77">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N77">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O77">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="P77" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="Q77">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -4523,43 +4745,43 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I78">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J78">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K78">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L78">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M78">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N78">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O78">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="P78" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="Q78">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -4572,74 +4794,74 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I79" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J79" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K79" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L79" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M79" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N79" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O79" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="P79" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="Q79" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.5">
       <c r="H80">
-        <f t="shared" ref="H80:N80" si="33">SUM(H2:H79)</f>
+        <f t="shared" ref="H80:N80" si="36">SUM(H2:H79)</f>
+        <v>12</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="36"/>
+        <v>21</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="36"/>
+        <v>23</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="36"/>
+        <v>9</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="36"/>
+        <v>10</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
-      <c r="I80">
-        <f t="shared" si="33"/>
-        <v>10</v>
-      </c>
-      <c r="J80">
-        <f t="shared" si="33"/>
-        <v>8</v>
-      </c>
-      <c r="K80">
-        <f t="shared" si="33"/>
-        <v>4</v>
-      </c>
-      <c r="L80">
-        <f t="shared" si="33"/>
-        <v>3</v>
-      </c>
-      <c r="M80">
-        <f t="shared" si="33"/>
-        <v>3</v>
-      </c>
       <c r="N80">
-        <f t="shared" si="33"/>
-        <v>5</v>
+        <f t="shared" si="36"/>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/nextversion/matrices.xlsx
+++ b/nextversion/matrices.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F73A6F-665D-4481-84B0-138D081C20FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D3A0A6-8CD2-457C-B44C-C508FD1E203F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1327" yWindow="793" windowWidth="24273" windowHeight="13007" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>Skirmisher</t>
   </si>
@@ -301,6 +301,15 @@
   </si>
   <si>
     <t>PS2</t>
+  </si>
+  <si>
+    <t>Hurler</t>
+  </si>
+  <si>
+    <t>ST2</t>
+  </si>
+  <si>
+    <t>MS4</t>
   </si>
 </sst>
 </file>
@@ -368,7 +377,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -376,11 +385,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -392,17 +429,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -689,7 +731,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -774,22 +816,22 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>33</v>
       </c>
       <c r="H2">
@@ -847,22 +889,22 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H3">
@@ -920,22 +962,22 @@
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H4">
@@ -993,22 +1035,22 @@
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A5" s="6"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>33</v>
       </c>
       <c r="H5">
@@ -1066,22 +1108,22 @@
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A6" s="6"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>43</v>
       </c>
       <c r="H6">
@@ -1139,22 +1181,22 @@
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A7" s="6"/>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>47</v>
       </c>
       <c r="H7">
@@ -1212,22 +1254,22 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A8" s="3"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>50</v>
       </c>
       <c r="H8">
@@ -1285,22 +1327,22 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A9" s="5"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>54</v>
       </c>
       <c r="H9" s="2">
@@ -1358,22 +1400,22 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.5">
       <c r="A10" s="5"/>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>57</v>
       </c>
       <c r="H10" s="2">
@@ -1429,24 +1471,24 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:20" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5"/>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H11" s="2">
@@ -1502,29 +1544,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:20" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="B12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="H12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="4"/>
@@ -1536,19 +1590,31 @@
       </c>
       <c r="N12" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P12" s="2" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>MS2ST2MS4RS1PT1</v>
       </c>
       <c r="Q12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <f t="shared" ref="R12" si="16">RIGHT(D12)-RIGHT(F12)</f>
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <f t="shared" ref="S12" si="17">RIGHT(C12)-RIGHT(E12)</f>
+        <v>-2</v>
+      </c>
+      <c r="T12">
+        <f t="shared" ref="T12" si="18">RIGHT(C12)+RIGHT(E12)-RIGHT(D12)-RIGHT(F12)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.5">
@@ -2589,43 +2655,43 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34">
-        <f t="shared" ref="H34:H65" si="16">LEN($P34)-LEN(SUBSTITUTE($P34,"M",""))</f>
+        <f t="shared" ref="H34:H65" si="19">LEN($P34)-LEN(SUBSTITUTE($P34,"M",""))</f>
         <v>0</v>
       </c>
       <c r="I34">
-        <f t="shared" ref="I34:I65" si="17">LEN($P34)-LEN(SUBSTITUTE($P34,"S",""))</f>
+        <f t="shared" ref="I34:I65" si="20">LEN($P34)-LEN(SUBSTITUTE($P34,"S",""))</f>
         <v>0</v>
       </c>
       <c r="J34">
-        <f t="shared" ref="J34:J65" si="18">LEN($P34)-LEN(SUBSTITUTE($P34,"R",""))</f>
+        <f t="shared" ref="J34:J65" si="21">LEN($P34)-LEN(SUBSTITUTE($P34,"R",""))</f>
         <v>0</v>
       </c>
       <c r="K34">
-        <f t="shared" ref="K34:K65" si="19">LEN($P34)-LEN(SUBSTITUTE($P34,"T",""))</f>
+        <f t="shared" ref="K34:K65" si="22">LEN($P34)-LEN(SUBSTITUTE($P34,"T",""))</f>
         <v>0</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34:L65" si="20">LEN($P34)-LEN(SUBSTITUTE($P34,"W",""))</f>
+        <f t="shared" ref="L34:L65" si="23">LEN($P34)-LEN(SUBSTITUTE($P34,"W",""))</f>
         <v>0</v>
       </c>
       <c r="M34">
-        <f t="shared" ref="M34:M65" si="21">LEN($P34)-LEN(SUBSTITUTE($P34,"C",""))</f>
+        <f t="shared" ref="M34:M65" si="24">LEN($P34)-LEN(SUBSTITUTE($P34,"C",""))</f>
         <v>0</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:N65" si="22">LEN($P34)-LEN(SUBSTITUTE($P34,"P",""))</f>
+        <f t="shared" ref="N34:N65" si="25">LEN($P34)-LEN(SUBSTITUTE($P34,"P",""))</f>
         <v>0</v>
       </c>
       <c r="O34">
-        <f t="shared" ref="O34:O65" si="23">COUNTIF(H34:N34, "&gt;0" )</f>
+        <f t="shared" ref="O34:O65" si="26">COUNTIF(H34:N34, "&gt;0" )</f>
         <v>0</v>
       </c>
       <c r="P34" t="str">
-        <f t="shared" ref="P34:P65" si="24">_xlfn.CONCAT(C34:G34)</f>
+        <f t="shared" ref="P34:P65" si="27">_xlfn.CONCAT(C34:G34)</f>
         <v/>
       </c>
       <c r="Q34">
-        <f t="shared" ref="Q34:Q65" si="25">MAX(H34:N34)</f>
+        <f t="shared" ref="Q34:Q65" si="28">MAX(H34:N34)</f>
         <v>0</v>
       </c>
     </row>
@@ -2638,43 +2704,43 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K35">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M35">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P35" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -2687,43 +2753,43 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P36" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -2736,43 +2802,43 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M37">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O37">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P37" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -2785,43 +2851,43 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K38">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L38">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q38">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -2834,43 +2900,43 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P39" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -2883,43 +2949,43 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P40" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -2932,43 +2998,43 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K41">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N41">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O41">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P41" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -2981,43 +3047,43 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M42">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O42">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P42" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q42">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -3030,43 +3096,43 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M43">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O43">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P43" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -3079,43 +3145,43 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L44">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M44">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -3128,43 +3194,43 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I45" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J45" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K45" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L45" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M45" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N45" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O45" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P45" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q45" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -3177,43 +3243,43 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P46" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -3226,43 +3292,43 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I47">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L47">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O47">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P47" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q47">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -3275,43 +3341,43 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M48">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N48">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O48">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P48" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q48">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -3324,43 +3390,43 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L49">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M49">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N49">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P49" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q49">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -3373,43 +3439,43 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L50">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M50">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N50">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q50">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -3422,43 +3488,43 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M51">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N51">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O51">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P51" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q51">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -3471,43 +3537,43 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P52" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q52">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -3520,43 +3586,43 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P53" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -3569,43 +3635,43 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M54">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N54">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P54" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q54">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -3618,43 +3684,43 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J55">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K55">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L55">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M55">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N55">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O55">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P55" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q55">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -3667,43 +3733,43 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J56">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L56">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M56">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N56">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O56">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P56" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q56">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -3716,43 +3782,43 @@
       <c r="F57" s="4"/>
       <c r="G57" s="3"/>
       <c r="H57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N57">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O57">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P57" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -3765,43 +3831,43 @@
       <c r="F58" s="4"/>
       <c r="G58" s="3"/>
       <c r="H58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J58">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P58" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q58">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -3814,43 +3880,43 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I59">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M59">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P59" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q59">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -3863,43 +3929,43 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O60">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P60" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -3912,43 +3978,43 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I61">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J61">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O61">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P61" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -3961,43 +4027,43 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I62">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K62">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M62">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N62">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P62" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q62">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -4010,43 +4076,43 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I63">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J63">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K63">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L63">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M63">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N63">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O63">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P63" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q63">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -4059,43 +4125,43 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I64">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J64">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K64">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M64">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N64">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O64">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P64" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q64">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -4108,43 +4174,43 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I65">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K65">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O65">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P65" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -4157,43 +4223,43 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66">
-        <f t="shared" ref="H66:H79" si="26">LEN($P66)-LEN(SUBSTITUTE($P66,"M",""))</f>
+        <f t="shared" ref="H66:H79" si="29">LEN($P66)-LEN(SUBSTITUTE($P66,"M",""))</f>
         <v>0</v>
       </c>
       <c r="I66">
-        <f t="shared" ref="I66:I79" si="27">LEN($P66)-LEN(SUBSTITUTE($P66,"S",""))</f>
+        <f t="shared" ref="I66:I79" si="30">LEN($P66)-LEN(SUBSTITUTE($P66,"S",""))</f>
         <v>0</v>
       </c>
       <c r="J66">
-        <f t="shared" ref="J66:J79" si="28">LEN($P66)-LEN(SUBSTITUTE($P66,"R",""))</f>
+        <f t="shared" ref="J66:J79" si="31">LEN($P66)-LEN(SUBSTITUTE($P66,"R",""))</f>
         <v>0</v>
       </c>
       <c r="K66">
-        <f t="shared" ref="K66:K79" si="29">LEN($P66)-LEN(SUBSTITUTE($P66,"T",""))</f>
+        <f t="shared" ref="K66:K79" si="32">LEN($P66)-LEN(SUBSTITUTE($P66,"T",""))</f>
         <v>0</v>
       </c>
       <c r="L66">
-        <f t="shared" ref="L66:L79" si="30">LEN($P66)-LEN(SUBSTITUTE($P66,"W",""))</f>
+        <f t="shared" ref="L66:L79" si="33">LEN($P66)-LEN(SUBSTITUTE($P66,"W",""))</f>
         <v>0</v>
       </c>
       <c r="M66">
-        <f t="shared" ref="M66:M79" si="31">LEN($P66)-LEN(SUBSTITUTE($P66,"C",""))</f>
+        <f t="shared" ref="M66:M79" si="34">LEN($P66)-LEN(SUBSTITUTE($P66,"C",""))</f>
         <v>0</v>
       </c>
       <c r="N66">
-        <f t="shared" ref="N66:N79" si="32">LEN($P66)-LEN(SUBSTITUTE($P66,"P",""))</f>
+        <f t="shared" ref="N66:N79" si="35">LEN($P66)-LEN(SUBSTITUTE($P66,"P",""))</f>
         <v>0</v>
       </c>
       <c r="O66">
-        <f t="shared" ref="O66:O79" si="33">COUNTIF(H66:N66, "&gt;0" )</f>
+        <f t="shared" ref="O66:O79" si="36">COUNTIF(H66:N66, "&gt;0" )</f>
         <v>0</v>
       </c>
       <c r="P66" t="str">
-        <f t="shared" ref="P66:P79" si="34">_xlfn.CONCAT(C66:G66)</f>
+        <f t="shared" ref="P66:P79" si="37">_xlfn.CONCAT(C66:G66)</f>
         <v/>
       </c>
       <c r="Q66">
-        <f t="shared" ref="Q66:Q79" si="35">MAX(H66:N66)</f>
+        <f t="shared" ref="Q66:Q79" si="38">MAX(H66:N66)</f>
         <v>0</v>
       </c>
     </row>
@@ -4206,43 +4272,43 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I67">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J67">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K67">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L67">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M67">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N67">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O67">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q67">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -4255,43 +4321,43 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M68">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O68">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P68" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q68">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -4304,43 +4370,43 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I69">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J69">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K69">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L69">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M69">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N69">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P69" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q69">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -4353,43 +4419,43 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J70">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L70">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M70">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N70">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O70">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P70" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -4402,43 +4468,43 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I71">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J71">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L71">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M71">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N71">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O71">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P71" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q71">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -4451,43 +4517,43 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I72">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J72">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P72" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -4500,43 +4566,43 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I73" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J73" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K73" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L73" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M73" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N73" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O73" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P73" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q73" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -4549,43 +4615,43 @@
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I74" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J74" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K74" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L74" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M74" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N74" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O74" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P74" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q74" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -4598,43 +4664,43 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I75" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J75" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K75" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L75" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M75" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N75" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O75" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P75" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q75" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -4647,43 +4713,43 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I76">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J76">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L76">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M76">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N76">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O76">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P76" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q76">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -4696,43 +4762,43 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I77">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J77">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K77">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L77">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M77">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N77">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O77">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P77" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q77">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -4745,43 +4811,43 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I78">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J78">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K78">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L78">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M78">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N78">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O78">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P78" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q78">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -4794,74 +4860,74 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I79" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J79" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K79" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L79" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M79" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N79" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O79" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P79" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q79" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.5">
       <c r="H80">
-        <f t="shared" ref="H80:N80" si="36">SUM(H2:H79)</f>
-        <v>12</v>
+        <f t="shared" ref="H80:N80" si="39">SUM(H2:H79)</f>
+        <v>14</v>
       </c>
       <c r="I80">
-        <f t="shared" si="36"/>
-        <v>21</v>
+        <f t="shared" si="39"/>
+        <v>25</v>
       </c>
       <c r="J80">
-        <f t="shared" si="36"/>
-        <v>23</v>
+        <f t="shared" si="39"/>
+        <v>24</v>
       </c>
       <c r="K80">
-        <f t="shared" si="36"/>
-        <v>9</v>
+        <f t="shared" si="39"/>
+        <v>11</v>
       </c>
       <c r="L80">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="M80">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>7</v>
       </c>
       <c r="N80">
-        <f t="shared" si="36"/>
-        <v>18</v>
+        <f t="shared" si="39"/>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
